--- a/uploads/formFileTemplate.xlsx
+++ b/uploads/formFileTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFAC05D-BBC6-4330-9212-863431BAF70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
   <si>
     <t>7A</t>
   </si>
@@ -38,22 +39,16 @@
     <t>kelas</t>
   </si>
   <si>
-    <t>siswa9</t>
-  </si>
-  <si>
-    <t>siswa8</t>
-  </si>
-  <si>
-    <t>siswa7</t>
-  </si>
-  <si>
-    <t>siswa6</t>
+    <t>Siswa tambahan</t>
+  </si>
+  <si>
+    <t>11A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,20 +359,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -388,9 +383,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>999</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -399,37 +394,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>888</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>777</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>666</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
